--- a/Data/EC/NIT-9005047235.xlsx
+++ b/Data/EC/NIT-9005047235.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D4857CE-01C4-4025-9E72-8A0F461CD54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECAE9DC7-6718-4A28-B199-20969B369A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EBF8C4C1-C36F-48DE-971B-19A351DC5B5B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4E222BD9-32B7-48DA-BF86-EEF70BBF7F68}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="114">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,67 +65,274 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73165830</t>
+  </si>
+  <si>
+    <t>DANIEL ALBERTO CAMACHO TORRES</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>45545998</t>
   </si>
   <si>
     <t>DIANORA PRENS GONZALEZ</t>
   </si>
   <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
+    <t>73093652</t>
+  </si>
+  <si>
+    <t>PLINIO NAVAS BARRIOS</t>
   </si>
   <si>
     <t>1047458670</t>
@@ -134,205 +341,10 @@
     <t>PAOLA MARGARITA MOLINA PAZ</t>
   </si>
   <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>73165830</t>
-  </si>
-  <si>
-    <t>DANIEL ALBERTO CAMACHO TORRES</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
+    <t>1148449724</t>
+  </si>
+  <si>
+    <t>IVAN ALFONSO RONCO BATISTA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -746,7 +758,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A422FA8-5E4B-8C8D-CFF8-B0DC0956D66C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E4173B-A208-F33E-F891-11E60595A60B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1097,8 +1109,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C014900F-F462-4475-8CBD-2BF19DC9FF4C}">
-  <dimension ref="B2:J147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A389F8B-255A-4F10-A754-AAD3E07AFC0A}">
+  <dimension ref="B2:J231"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1122,7 +1134,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1167,7 +1179,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1199,12 +1211,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3940379</v>
+        <v>6760768</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1215,14 +1227,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F13" s="5">
         <v>84</v>
@@ -1252,13 +1264,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1275,10 +1287,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>26000</v>
+        <v>25920</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1298,10 +1310,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1321,10 +1333,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1344,10 +1356,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1367,10 +1379,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1390,10 +1402,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1413,10 +1425,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1436,10 +1448,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1459,10 +1471,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1482,10 +1494,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1505,10 +1517,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1528,10 +1540,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1551,10 +1563,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1574,10 +1586,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1597,10 +1609,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1620,10 +1632,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1643,10 +1655,10 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1666,10 +1678,10 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1689,10 +1701,10 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1703,19 +1715,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F35" s="18">
-        <v>34000</v>
+        <v>35345</v>
       </c>
       <c r="G35" s="18">
-        <v>850000</v>
+        <v>883620</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1732,13 +1744,13 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1749,19 +1761,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>34000</v>
+        <v>35345</v>
       </c>
       <c r="G37" s="18">
-        <v>850000</v>
+        <v>883620</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1772,19 +1784,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>34000</v>
+        <v>35345</v>
       </c>
       <c r="G38" s="18">
-        <v>850000</v>
+        <v>883620</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1801,13 +1813,13 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1824,13 +1836,13 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G40" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1841,19 +1853,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>34000</v>
+        <v>35345</v>
       </c>
       <c r="G41" s="18">
-        <v>850000</v>
+        <v>883620</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1864,19 +1876,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>34000</v>
+        <v>35345</v>
       </c>
       <c r="G42" s="18">
-        <v>850000</v>
+        <v>883620</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1893,13 +1905,13 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G43" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1910,19 +1922,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>34000</v>
+        <v>35345</v>
       </c>
       <c r="G44" s="18">
-        <v>850000</v>
+        <v>883620</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1939,13 +1951,13 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G45" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1962,13 +1974,13 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G46" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1979,19 +1991,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F47" s="18">
-        <v>34000</v>
+        <v>22916</v>
       </c>
       <c r="G47" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2002,19 +2014,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F48" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2025,16 +2037,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F49" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -2048,19 +2060,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F50" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2071,13 +2083,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -2094,13 +2106,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -2117,19 +2129,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F53" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2140,19 +2152,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F54" s="18">
-        <v>34000</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>850000</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2163,13 +2175,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2186,13 +2198,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2209,13 +2221,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2232,13 +2244,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2255,13 +2267,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2278,13 +2290,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2301,13 +2313,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2324,13 +2336,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2347,13 +2359,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2370,13 +2382,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2393,13 +2405,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2416,13 +2428,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2439,13 +2451,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2462,13 +2474,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2485,13 +2497,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2508,13 +2520,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2531,13 +2543,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2554,13 +2566,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2577,13 +2589,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2600,13 +2612,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2623,13 +2635,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2646,13 +2658,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2669,13 +2681,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2692,13 +2704,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2715,13 +2727,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2738,19 +2750,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F80" s="18">
-        <v>35345</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2761,13 +2773,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2784,13 +2796,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2807,19 +2819,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F83" s="18">
-        <v>35345</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2830,13 +2842,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2853,19 +2865,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F85" s="18">
-        <v>35345</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2876,13 +2888,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2899,19 +2911,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F87" s="18">
-        <v>35345</v>
+        <v>31249</v>
       </c>
       <c r="G87" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2922,13 +2934,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -2945,19 +2957,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F89" s="18">
-        <v>35345</v>
+        <v>31249</v>
       </c>
       <c r="G89" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2968,19 +2980,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F90" s="18">
-        <v>35345</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2991,13 +3003,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3014,19 +3026,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F92" s="18">
-        <v>35345</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3037,13 +3049,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -3060,13 +3072,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -3083,19 +3095,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F95" s="18">
-        <v>35345</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3106,13 +3118,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
@@ -3129,19 +3141,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F97" s="18">
-        <v>35345</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3152,19 +3164,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F98" s="18">
-        <v>35345</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3175,13 +3187,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
@@ -3198,19 +3210,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E100" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D100" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>78</v>
-      </c>
       <c r="F100" s="18">
-        <v>35345</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3221,13 +3233,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F101" s="18">
         <v>31249</v>
@@ -3244,19 +3256,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F102" s="18">
-        <v>35345</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3267,13 +3279,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F103" s="18">
         <v>31249</v>
@@ -3290,19 +3302,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F104" s="18">
-        <v>35345</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3313,16 +3325,16 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>26000</v>
       </c>
       <c r="G105" s="18">
         <v>781242</v>
@@ -3336,19 +3348,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F106" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G106" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3359,16 +3371,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F107" s="18">
-        <v>31249</v>
+        <v>26000</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3382,19 +3394,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F108" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G108" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3405,16 +3417,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F109" s="18">
-        <v>31249</v>
+        <v>26000</v>
       </c>
       <c r="G109" s="18">
         <v>781242</v>
@@ -3428,19 +3440,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F110" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G110" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3451,16 +3463,16 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F111" s="18">
-        <v>31249</v>
+        <v>26000</v>
       </c>
       <c r="G111" s="18">
         <v>781242</v>
@@ -3474,16 +3486,16 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>26000</v>
       </c>
       <c r="G112" s="18">
         <v>781242</v>
@@ -3497,19 +3509,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F113" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G113" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3520,19 +3532,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F114" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G114" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3543,16 +3555,16 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F115" s="18">
-        <v>31249</v>
+        <v>26000</v>
       </c>
       <c r="G115" s="18">
         <v>781242</v>
@@ -3566,16 +3578,16 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F116" s="18">
-        <v>31249</v>
+        <v>26000</v>
       </c>
       <c r="G116" s="18">
         <v>781242</v>
@@ -3589,19 +3601,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F117" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G117" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3612,16 +3624,16 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F118" s="18">
-        <v>31249</v>
+        <v>26000</v>
       </c>
       <c r="G118" s="18">
         <v>781242</v>
@@ -3635,19 +3647,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F119" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G119" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3658,19 +3670,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F120" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G120" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3681,16 +3693,16 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F121" s="18">
-        <v>31249</v>
+        <v>26000</v>
       </c>
       <c r="G121" s="18">
         <v>781242</v>
@@ -3704,19 +3716,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F122" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G122" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3727,16 +3739,16 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E123" s="16" t="s">
         <v>89</v>
       </c>
       <c r="F123" s="18">
-        <v>31249</v>
+        <v>26000</v>
       </c>
       <c r="G123" s="18">
         <v>781242</v>
@@ -3750,16 +3762,16 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E124" s="16" t="s">
         <v>90</v>
       </c>
       <c r="F124" s="18">
-        <v>31249</v>
+        <v>26000</v>
       </c>
       <c r="G124" s="18">
         <v>781242</v>
@@ -3773,19 +3785,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F125" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G125" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3796,16 +3808,16 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F126" s="18">
-        <v>31249</v>
+        <v>26000</v>
       </c>
       <c r="G126" s="18">
         <v>781242</v>
@@ -3819,19 +3831,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F127" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G127" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3842,19 +3854,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F128" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G128" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3865,16 +3877,16 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F129" s="18">
-        <v>31249</v>
+        <v>26000</v>
       </c>
       <c r="G129" s="18">
         <v>781242</v>
@@ -3888,19 +3900,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F130" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G130" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3911,19 +3923,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="F131" s="18">
-        <v>31249</v>
+        <v>25749</v>
       </c>
       <c r="G131" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3934,19 +3946,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="F132" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G132" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3957,19 +3969,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="F133" s="18">
-        <v>35345</v>
+        <v>35112</v>
       </c>
       <c r="G133" s="18">
-        <v>883620</v>
+        <v>877803</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3980,19 +3992,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="F134" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G134" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4003,19 +4015,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="F135" s="18">
-        <v>35345</v>
+        <v>35112</v>
       </c>
       <c r="G135" s="18">
-        <v>883620</v>
+        <v>877803</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4026,19 +4038,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="F136" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G136" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4049,19 +4061,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="F137" s="18">
-        <v>35345</v>
+        <v>35112</v>
       </c>
       <c r="G137" s="18">
-        <v>883620</v>
+        <v>877803</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4072,19 +4084,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="F138" s="18">
-        <v>35345</v>
+        <v>35112</v>
       </c>
       <c r="G138" s="18">
-        <v>883620</v>
+        <v>877803</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4095,19 +4107,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="F139" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G139" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4118,75 +4130,2007 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="F140" s="18">
-        <v>25920</v>
+        <v>35112</v>
       </c>
       <c r="G140" s="18">
-        <v>883620</v>
+        <v>877803</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
       <c r="J140" s="20"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B141" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E141" s="22" t="s">
+      <c r="B141" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D141" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F141" s="24">
-        <v>22916</v>
-      </c>
-      <c r="G141" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H141" s="25"/>
-      <c r="I141" s="25"/>
-      <c r="J141" s="26"/>
+      <c r="E141" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F141" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G141" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="20"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B142" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F142" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G142" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="20"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B143" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F143" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G143" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="20"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B144" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F144" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G144" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="20"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B145" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F145" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G145" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="20"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B146" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C146" s="32"/>
-      <c r="H146" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
+      <c r="B146" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D146" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F146" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G146" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="20"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B147" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C147" s="32"/>
-      <c r="H147" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
+      <c r="B147" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F147" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G147" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="20"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B148" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F148" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G148" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="20"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B149" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F149" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G149" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="20"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B150" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F150" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G150" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H150" s="19"/>
+      <c r="I150" s="19"/>
+      <c r="J150" s="20"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B151" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F151" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G151" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="20"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B152" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F152" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G152" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="20"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B153" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F153" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G153" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="20"/>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B154" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D154" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E154" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F154" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G154" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="20"/>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B155" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D155" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E155" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F155" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G155" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="20"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B156" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E156" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F156" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G156" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="20"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B157" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D157" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E157" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F157" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G157" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H157" s="19"/>
+      <c r="I157" s="19"/>
+      <c r="J157" s="20"/>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B158" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D158" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F158" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G158" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H158" s="19"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="20"/>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B159" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D159" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F159" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G159" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H159" s="19"/>
+      <c r="I159" s="19"/>
+      <c r="J159" s="20"/>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B160" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D160" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F160" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G160" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H160" s="19"/>
+      <c r="I160" s="19"/>
+      <c r="J160" s="20"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B161" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E161" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F161" s="18">
+        <v>34000</v>
+      </c>
+      <c r="G161" s="18">
+        <v>850000</v>
+      </c>
+      <c r="H161" s="19"/>
+      <c r="I161" s="19"/>
+      <c r="J161" s="20"/>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B162" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D162" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F162" s="18">
+        <v>34000</v>
+      </c>
+      <c r="G162" s="18">
+        <v>850000</v>
+      </c>
+      <c r="H162" s="19"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="20"/>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B163" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E163" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F163" s="18">
+        <v>34000</v>
+      </c>
+      <c r="G163" s="18">
+        <v>850000</v>
+      </c>
+      <c r="H163" s="19"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="20"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B164" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F164" s="18">
+        <v>34000</v>
+      </c>
+      <c r="G164" s="18">
+        <v>850000</v>
+      </c>
+      <c r="H164" s="19"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="20"/>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B165" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D165" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E165" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F165" s="18">
+        <v>34000</v>
+      </c>
+      <c r="G165" s="18">
+        <v>850000</v>
+      </c>
+      <c r="H165" s="19"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="20"/>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B166" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E166" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F166" s="18">
+        <v>34000</v>
+      </c>
+      <c r="G166" s="18">
+        <v>850000</v>
+      </c>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="20"/>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B167" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E167" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F167" s="18">
+        <v>34000</v>
+      </c>
+      <c r="G167" s="18">
+        <v>850000</v>
+      </c>
+      <c r="H167" s="19"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="20"/>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B168" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E168" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F168" s="18">
+        <v>34000</v>
+      </c>
+      <c r="G168" s="18">
+        <v>850000</v>
+      </c>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="20"/>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B169" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D169" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E169" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F169" s="18">
+        <v>34000</v>
+      </c>
+      <c r="G169" s="18">
+        <v>850000</v>
+      </c>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="20"/>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B170" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E170" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F170" s="18">
+        <v>34000</v>
+      </c>
+      <c r="G170" s="18">
+        <v>850000</v>
+      </c>
+      <c r="H170" s="19"/>
+      <c r="I170" s="19"/>
+      <c r="J170" s="20"/>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B171" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F171" s="18">
+        <v>34000</v>
+      </c>
+      <c r="G171" s="18">
+        <v>850000</v>
+      </c>
+      <c r="H171" s="19"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="20"/>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B172" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D172" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E172" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" s="18">
+        <v>24292</v>
+      </c>
+      <c r="G172" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H172" s="19"/>
+      <c r="I172" s="19"/>
+      <c r="J172" s="20"/>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B173" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F173" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G173" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H173" s="19"/>
+      <c r="I173" s="19"/>
+      <c r="J173" s="20"/>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B174" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G174" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H174" s="19"/>
+      <c r="I174" s="19"/>
+      <c r="J174" s="20"/>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B175" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D175" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E175" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G175" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H175" s="19"/>
+      <c r="I175" s="19"/>
+      <c r="J175" s="20"/>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B176" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D176" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E176" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F176" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G176" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H176" s="19"/>
+      <c r="I176" s="19"/>
+      <c r="J176" s="20"/>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B177" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D177" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E177" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F177" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G177" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H177" s="19"/>
+      <c r="I177" s="19"/>
+      <c r="J177" s="20"/>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B178" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D178" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E178" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F178" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G178" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H178" s="19"/>
+      <c r="I178" s="19"/>
+      <c r="J178" s="20"/>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B179" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D179" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E179" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F179" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G179" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H179" s="19"/>
+      <c r="I179" s="19"/>
+      <c r="J179" s="20"/>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B180" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D180" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E180" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F180" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G180" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H180" s="19"/>
+      <c r="I180" s="19"/>
+      <c r="J180" s="20"/>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B181" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D181" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E181" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F181" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G181" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H181" s="19"/>
+      <c r="I181" s="19"/>
+      <c r="J181" s="20"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B182" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D182" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E182" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F182" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G182" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H182" s="19"/>
+      <c r="I182" s="19"/>
+      <c r="J182" s="20"/>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B183" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D183" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E183" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F183" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G183" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H183" s="19"/>
+      <c r="I183" s="19"/>
+      <c r="J183" s="20"/>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B184" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D184" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E184" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F184" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G184" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H184" s="19"/>
+      <c r="I184" s="19"/>
+      <c r="J184" s="20"/>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B185" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F185" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G185" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H185" s="19"/>
+      <c r="I185" s="19"/>
+      <c r="J185" s="20"/>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B186" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D186" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E186" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F186" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G186" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H186" s="19"/>
+      <c r="I186" s="19"/>
+      <c r="J186" s="20"/>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B187" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D187" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E187" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F187" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G187" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H187" s="19"/>
+      <c r="I187" s="19"/>
+      <c r="J187" s="20"/>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B188" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D188" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E188" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F188" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G188" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H188" s="19"/>
+      <c r="I188" s="19"/>
+      <c r="J188" s="20"/>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B189" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D189" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E189" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F189" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G189" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H189" s="19"/>
+      <c r="I189" s="19"/>
+      <c r="J189" s="20"/>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B190" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D190" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E190" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F190" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G190" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H190" s="19"/>
+      <c r="I190" s="19"/>
+      <c r="J190" s="20"/>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B191" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D191" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E191" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F191" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G191" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H191" s="19"/>
+      <c r="I191" s="19"/>
+      <c r="J191" s="20"/>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B192" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D192" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E192" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F192" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G192" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H192" s="19"/>
+      <c r="I192" s="19"/>
+      <c r="J192" s="20"/>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B193" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D193" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E193" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F193" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G193" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H193" s="19"/>
+      <c r="I193" s="19"/>
+      <c r="J193" s="20"/>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B194" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D194" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E194" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F194" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G194" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H194" s="19"/>
+      <c r="I194" s="19"/>
+      <c r="J194" s="20"/>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B195" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D195" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E195" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F195" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G195" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H195" s="19"/>
+      <c r="I195" s="19"/>
+      <c r="J195" s="20"/>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B196" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D196" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E196" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F196" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G196" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H196" s="19"/>
+      <c r="I196" s="19"/>
+      <c r="J196" s="20"/>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B197" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D197" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E197" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F197" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G197" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H197" s="19"/>
+      <c r="I197" s="19"/>
+      <c r="J197" s="20"/>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B198" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D198" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E198" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F198" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G198" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H198" s="19"/>
+      <c r="I198" s="19"/>
+      <c r="J198" s="20"/>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B199" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D199" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E199" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F199" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G199" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H199" s="19"/>
+      <c r="I199" s="19"/>
+      <c r="J199" s="20"/>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B200" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E200" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F200" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G200" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H200" s="19"/>
+      <c r="I200" s="19"/>
+      <c r="J200" s="20"/>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B201" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D201" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E201" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F201" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G201" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H201" s="19"/>
+      <c r="I201" s="19"/>
+      <c r="J201" s="20"/>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B202" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D202" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E202" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F202" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G202" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H202" s="19"/>
+      <c r="I202" s="19"/>
+      <c r="J202" s="20"/>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B203" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D203" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E203" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F203" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G203" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H203" s="19"/>
+      <c r="I203" s="19"/>
+      <c r="J203" s="20"/>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B204" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D204" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E204" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F204" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G204" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H204" s="19"/>
+      <c r="I204" s="19"/>
+      <c r="J204" s="20"/>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B205" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D205" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E205" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F205" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G205" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H205" s="19"/>
+      <c r="I205" s="19"/>
+      <c r="J205" s="20"/>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B206" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D206" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E206" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F206" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G206" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H206" s="19"/>
+      <c r="I206" s="19"/>
+      <c r="J206" s="20"/>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B207" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D207" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E207" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F207" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G207" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H207" s="19"/>
+      <c r="I207" s="19"/>
+      <c r="J207" s="20"/>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B208" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D208" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E208" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F208" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G208" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H208" s="19"/>
+      <c r="I208" s="19"/>
+      <c r="J208" s="20"/>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B209" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D209" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E209" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F209" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G209" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H209" s="19"/>
+      <c r="I209" s="19"/>
+      <c r="J209" s="20"/>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B210" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D210" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E210" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F210" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G210" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H210" s="19"/>
+      <c r="I210" s="19"/>
+      <c r="J210" s="20"/>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B211" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D211" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E211" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F211" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G211" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H211" s="19"/>
+      <c r="I211" s="19"/>
+      <c r="J211" s="20"/>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B212" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D212" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E212" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F212" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G212" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H212" s="19"/>
+      <c r="I212" s="19"/>
+      <c r="J212" s="20"/>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B213" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D213" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E213" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F213" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G213" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H213" s="19"/>
+      <c r="I213" s="19"/>
+      <c r="J213" s="20"/>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B214" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D214" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E214" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F214" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G214" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H214" s="19"/>
+      <c r="I214" s="19"/>
+      <c r="J214" s="20"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B215" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D215" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E215" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F215" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G215" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H215" s="19"/>
+      <c r="I215" s="19"/>
+      <c r="J215" s="20"/>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B216" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D216" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E216" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F216" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G216" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H216" s="19"/>
+      <c r="I216" s="19"/>
+      <c r="J216" s="20"/>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B217" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D217" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E217" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F217" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G217" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H217" s="19"/>
+      <c r="I217" s="19"/>
+      <c r="J217" s="20"/>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B218" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D218" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E218" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F218" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G218" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H218" s="19"/>
+      <c r="I218" s="19"/>
+      <c r="J218" s="20"/>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B219" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D219" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E219" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F219" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G219" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H219" s="19"/>
+      <c r="I219" s="19"/>
+      <c r="J219" s="20"/>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B220" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D220" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E220" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F220" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G220" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H220" s="19"/>
+      <c r="I220" s="19"/>
+      <c r="J220" s="20"/>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B221" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D221" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E221" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F221" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G221" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H221" s="19"/>
+      <c r="I221" s="19"/>
+      <c r="J221" s="20"/>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B222" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D222" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E222" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F222" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G222" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H222" s="19"/>
+      <c r="I222" s="19"/>
+      <c r="J222" s="20"/>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B223" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D223" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E223" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F223" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G223" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H223" s="19"/>
+      <c r="I223" s="19"/>
+      <c r="J223" s="20"/>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B224" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D224" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E224" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F224" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G224" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H224" s="19"/>
+      <c r="I224" s="19"/>
+      <c r="J224" s="20"/>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B225" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D225" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E225" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F225" s="24">
+        <v>29600</v>
+      </c>
+      <c r="G225" s="24">
+        <v>828116</v>
+      </c>
+      <c r="H225" s="25"/>
+      <c r="I225" s="25"/>
+      <c r="J225" s="26"/>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B230" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C230" s="32"/>
+      <c r="H230" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B231" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C231" s="32"/>
+      <c r="H231" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="H147:J147"/>
-    <mergeCell ref="H146:J146"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="H231:J231"/>
+    <mergeCell ref="H230:J230"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9005047235.xlsx
+++ b/Data/EC/NIT-9005047235.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECAE9DC7-6718-4A28-B199-20969B369A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31FCFFA8-70C8-4CFC-B575-A1C4B4ABAE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4E222BD9-32B7-48DA-BF86-EEF70BBF7F68}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7422CAE1-2E7A-4CB6-9F5A-71769648195B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="110">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,286 +65,274 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45545998</t>
+  </si>
+  <si>
+    <t>DIANORA PRENS GONZALEZ</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1047458670</t>
+  </si>
+  <si>
+    <t>PAOLA MARGARITA MOLINA PAZ</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
     <t>73165830</t>
   </si>
   <si>
     <t>DANIEL ALBERTO CAMACHO TORRES</t>
   </si>
   <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
     <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>45545998</t>
-  </si>
-  <si>
-    <t>DIANORA PRENS GONZALEZ</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>73093652</t>
-  </si>
-  <si>
-    <t>PLINIO NAVAS BARRIOS</t>
-  </si>
-  <si>
-    <t>1047458670</t>
-  </si>
-  <si>
-    <t>PAOLA MARGARITA MOLINA PAZ</t>
-  </si>
-  <si>
-    <t>1148449724</t>
-  </si>
-  <si>
-    <t>IVAN ALFONSO RONCO BATISTA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -443,7 +431,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -456,9 +446,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -658,23 +646,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -702,10 +690,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,7 +746,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E4173B-A208-F33E-F891-11E60595A60B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24AD6B0A-95DF-6929-CB2C-65220C357A40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1109,8 +1097,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A389F8B-255A-4F10-A754-AAD3E07AFC0A}">
-  <dimension ref="B2:J231"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C52553-E1D9-4C5B-8061-6DC6F88FD65A}">
+  <dimension ref="B2:J147"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1134,7 +1122,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1179,7 +1167,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1211,12 +1199,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>6760768</v>
+        <v>3940379</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1227,14 +1215,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F13" s="5">
         <v>84</v>
@@ -1264,13 +1252,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1287,10 +1275,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>25920</v>
+        <v>26000</v>
       </c>
       <c r="G16" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1310,10 +1298,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G17" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1333,10 +1321,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G18" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1356,10 +1344,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G19" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1379,10 +1367,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G20" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1402,10 +1390,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G21" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1425,10 +1413,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G22" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1448,10 +1436,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G23" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1471,10 +1459,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G24" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1494,10 +1482,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G25" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1517,10 +1505,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G26" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1540,10 +1528,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G27" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1563,10 +1551,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G28" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1586,10 +1574,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G29" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1609,10 +1597,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G30" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1632,10 +1620,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G31" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1655,10 +1643,10 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G32" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1678,10 +1666,10 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G33" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1701,10 +1689,10 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G34" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1715,19 +1703,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35" s="18">
-        <v>35345</v>
+        <v>34000</v>
       </c>
       <c r="G35" s="18">
-        <v>883620</v>
+        <v>850000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1744,13 +1732,13 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G36" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1761,19 +1749,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>35345</v>
+        <v>34000</v>
       </c>
       <c r="G37" s="18">
-        <v>883620</v>
+        <v>850000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1793,10 +1781,10 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G38" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1807,19 +1795,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" s="18">
-        <v>35345</v>
+        <v>34000</v>
       </c>
       <c r="G39" s="18">
-        <v>883620</v>
+        <v>850000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1836,13 +1824,13 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F40" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G40" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1853,19 +1841,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F41" s="18">
-        <v>35345</v>
+        <v>34000</v>
       </c>
       <c r="G41" s="18">
-        <v>883620</v>
+        <v>850000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1882,13 +1870,13 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F42" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G42" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1899,19 +1887,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F43" s="18">
-        <v>35345</v>
+        <v>34000</v>
       </c>
       <c r="G43" s="18">
-        <v>883620</v>
+        <v>850000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1928,13 +1916,13 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F44" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G44" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1945,19 +1933,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F45" s="18">
-        <v>35345</v>
+        <v>34000</v>
       </c>
       <c r="G45" s="18">
-        <v>883620</v>
+        <v>850000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1974,13 +1962,13 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F46" s="18">
-        <v>35345</v>
+        <v>26000</v>
       </c>
       <c r="G46" s="18">
-        <v>883620</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1991,19 +1979,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F47" s="18">
-        <v>22916</v>
+        <v>34000</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2014,16 +2002,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>26000</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -2037,19 +2025,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G49" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2060,13 +2048,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -2083,19 +2071,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G51" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2106,13 +2094,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -2129,19 +2117,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G53" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2152,13 +2140,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2175,19 +2163,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>34000</v>
       </c>
       <c r="G55" s="18">
-        <v>781242</v>
+        <v>850000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2198,13 +2186,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2221,13 +2209,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2244,13 +2232,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2267,13 +2255,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2290,13 +2278,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2313,13 +2301,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2336,13 +2324,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2359,13 +2347,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2382,13 +2370,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2405,13 +2393,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2428,13 +2416,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2451,13 +2439,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2474,13 +2462,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2497,13 +2485,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2520,13 +2508,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2543,13 +2531,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2566,13 +2554,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2589,13 +2577,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2612,13 +2600,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2635,13 +2623,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2658,13 +2646,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2681,13 +2669,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2704,13 +2692,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2727,13 +2715,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2750,19 +2738,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>35345</v>
       </c>
       <c r="G80" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2773,13 +2761,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2796,19 +2784,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>35345</v>
       </c>
       <c r="G82" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2819,13 +2807,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2842,19 +2830,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>35345</v>
       </c>
       <c r="G84" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2865,13 +2853,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2888,19 +2876,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>35345</v>
       </c>
       <c r="G86" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2911,13 +2899,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2934,19 +2922,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>35345</v>
       </c>
       <c r="G88" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2957,13 +2945,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -2980,19 +2968,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>35345</v>
       </c>
       <c r="G90" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3003,13 +2991,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3026,19 +3014,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>35345</v>
       </c>
       <c r="G92" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3049,13 +3037,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -3072,19 +3060,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>35345</v>
       </c>
       <c r="G94" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3095,13 +3083,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
@@ -3118,19 +3106,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>35345</v>
       </c>
       <c r="G96" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3141,13 +3129,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3164,19 +3152,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>35345</v>
       </c>
       <c r="G98" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3187,13 +3175,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
@@ -3210,19 +3198,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>35345</v>
       </c>
       <c r="G100" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3233,13 +3221,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F101" s="18">
         <v>31249</v>
@@ -3256,19 +3244,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>35345</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3279,13 +3267,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F103" s="18">
         <v>31249</v>
@@ -3302,19 +3290,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>35345</v>
       </c>
       <c r="G104" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3325,16 +3313,16 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F105" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
         <v>781242</v>
@@ -3348,19 +3336,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F106" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G106" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3371,16 +3359,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F107" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3394,19 +3382,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F108" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G108" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3417,16 +3405,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F109" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G109" s="18">
         <v>781242</v>
@@ -3440,19 +3428,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F110" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G110" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3463,16 +3451,16 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F111" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
         <v>781242</v>
@@ -3486,19 +3474,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F112" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G112" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3509,16 +3497,16 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F113" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
         <v>781242</v>
@@ -3532,19 +3520,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F114" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G114" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3555,16 +3543,16 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F115" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
         <v>781242</v>
@@ -3578,19 +3566,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F116" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G116" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3601,16 +3589,16 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F117" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
         <v>781242</v>
@@ -3624,19 +3612,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F118" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G118" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3647,16 +3635,16 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F119" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
         <v>781242</v>
@@ -3670,19 +3658,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F120" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G120" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3693,16 +3681,16 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F121" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G121" s="18">
         <v>781242</v>
@@ -3716,19 +3704,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F122" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G122" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3739,16 +3727,16 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E123" s="16" t="s">
         <v>89</v>
       </c>
       <c r="F123" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G123" s="18">
         <v>781242</v>
@@ -3762,19 +3750,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E124" s="16" t="s">
         <v>90</v>
       </c>
       <c r="F124" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G124" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3785,16 +3773,16 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F125" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
         <v>781242</v>
@@ -3808,19 +3796,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F126" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G126" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3831,16 +3819,16 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F127" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G127" s="18">
         <v>781242</v>
@@ -3854,19 +3842,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F128" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G128" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3877,16 +3865,16 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F129" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G129" s="18">
         <v>781242</v>
@@ -3900,19 +3888,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F130" s="18">
-        <v>26000</v>
+        <v>35345</v>
       </c>
       <c r="G130" s="18">
-        <v>781242</v>
+        <v>883620</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3923,19 +3911,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="F131" s="18">
-        <v>25749</v>
+        <v>31249</v>
       </c>
       <c r="G131" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3946,19 +3934,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="F132" s="18">
-        <v>35112</v>
+        <v>35345</v>
       </c>
       <c r="G132" s="18">
-        <v>877803</v>
+        <v>883620</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3969,19 +3957,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="F133" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G133" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3992,19 +3980,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F134" s="18">
-        <v>35112</v>
+        <v>35345</v>
       </c>
       <c r="G134" s="18">
-        <v>877803</v>
+        <v>883620</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4015,19 +4003,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="F135" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G135" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4038,19 +4026,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="F136" s="18">
-        <v>35112</v>
+        <v>35345</v>
       </c>
       <c r="G136" s="18">
-        <v>877803</v>
+        <v>883620</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4061,19 +4049,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="F137" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G137" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4084,19 +4072,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E138" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D138" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F138" s="18">
-        <v>35112</v>
+        <v>35345</v>
       </c>
       <c r="G138" s="18">
-        <v>877803</v>
+        <v>883620</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4107,19 +4095,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D139" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F139" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G139" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4130,2007 +4118,75 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D140" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E140" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E140" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F140" s="18">
-        <v>35112</v>
+        <v>25920</v>
       </c>
       <c r="G140" s="18">
-        <v>877803</v>
+        <v>883620</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
       <c r="J140" s="20"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B141" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D141" s="17" t="s">
+      <c r="B141" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E141" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F141" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G141" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B142" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F142" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G142" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B143" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D143" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F143" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G143" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B144" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F144" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G144" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B145" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F145" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G145" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
+      <c r="F141" s="24">
+        <v>22916</v>
+      </c>
+      <c r="G141" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H141" s="25"/>
+      <c r="I141" s="25"/>
+      <c r="J141" s="26"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B146" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F146" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G146" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
+      <c r="B146" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C146" s="32"/>
+      <c r="H146" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B147" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F147" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G147" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B148" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D148" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F148" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G148" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B149" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E149" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F149" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G149" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B150" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F150" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G150" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B151" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F151" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G151" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B152" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D152" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E152" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F152" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G152" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B153" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D153" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E153" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F153" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G153" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B154" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E154" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F154" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G154" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B155" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D155" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E155" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F155" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G155" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B156" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D156" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E156" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F156" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G156" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="20"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B157" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D157" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E157" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F157" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G157" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="20"/>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B158" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D158" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E158" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F158" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G158" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="20"/>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B159" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D159" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E159" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F159" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G159" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="20"/>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B160" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D160" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E160" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F160" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G160" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="20"/>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B161" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D161" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E161" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F161" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G161" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="20"/>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B162" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D162" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E162" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F162" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G162" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="20"/>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B163" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D163" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E163" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F163" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G163" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="20"/>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B164" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E164" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F164" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G164" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="20"/>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B165" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D165" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E165" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F165" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G165" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="20"/>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B166" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E166" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F166" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G166" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="20"/>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B167" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D167" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E167" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F167" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G167" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="20"/>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B168" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D168" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E168" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F168" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G168" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="20"/>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B169" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D169" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E169" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F169" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G169" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="20"/>
-    </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B170" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D170" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E170" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F170" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G170" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="20"/>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B171" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D171" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E171" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F171" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G171" s="18">
-        <v>850000</v>
-      </c>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="20"/>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B172" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D172" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E172" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F172" s="18">
-        <v>24292</v>
-      </c>
-      <c r="G172" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="20"/>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B173" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D173" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E173" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F173" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G173" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="20"/>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B174" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D174" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E174" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F174" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G174" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="20"/>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B175" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D175" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E175" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F175" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G175" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="20"/>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B176" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D176" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E176" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F176" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G176" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="20"/>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B177" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D177" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E177" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F177" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G177" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="20"/>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B178" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D178" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E178" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F178" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G178" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="20"/>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B179" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D179" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E179" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F179" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G179" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="20"/>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B180" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C180" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D180" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F180" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G180" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="20"/>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B181" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C181" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D181" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E181" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F181" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G181" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="20"/>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B182" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C182" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D182" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E182" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F182" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G182" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="20"/>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B183" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C183" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D183" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E183" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F183" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G183" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="20"/>
-    </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B184" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C184" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D184" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E184" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F184" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G184" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="20"/>
-    </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B185" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D185" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E185" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F185" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G185" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="20"/>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B186" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C186" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D186" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E186" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F186" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G186" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="20"/>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B187" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C187" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D187" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E187" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F187" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G187" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="20"/>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B188" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C188" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D188" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E188" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F188" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G188" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="20"/>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B189" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C189" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D189" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E189" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F189" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G189" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="20"/>
-    </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B190" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D190" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E190" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F190" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G190" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="20"/>
-    </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B191" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C191" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D191" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E191" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F191" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G191" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="20"/>
-    </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B192" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C192" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D192" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E192" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F192" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G192" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="20"/>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B193" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C193" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D193" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E193" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F193" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G193" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="20"/>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B194" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C194" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D194" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E194" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F194" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G194" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="20"/>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B195" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D195" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E195" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F195" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G195" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="20"/>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B196" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C196" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D196" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E196" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F196" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G196" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="20"/>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B197" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C197" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D197" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E197" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F197" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G197" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="20"/>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B198" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C198" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D198" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E198" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F198" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G198" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="20"/>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B199" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C199" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D199" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E199" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F199" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G199" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="20"/>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B200" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D200" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E200" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F200" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G200" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-      <c r="J200" s="20"/>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B201" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C201" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D201" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E201" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F201" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G201" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
-      <c r="J201" s="20"/>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B202" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C202" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D202" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E202" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F202" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G202" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H202" s="19"/>
-      <c r="I202" s="19"/>
-      <c r="J202" s="20"/>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B203" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C203" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D203" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E203" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F203" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G203" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H203" s="19"/>
-      <c r="I203" s="19"/>
-      <c r="J203" s="20"/>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B204" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C204" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D204" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E204" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F204" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G204" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H204" s="19"/>
-      <c r="I204" s="19"/>
-      <c r="J204" s="20"/>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B205" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D205" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E205" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F205" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G205" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H205" s="19"/>
-      <c r="I205" s="19"/>
-      <c r="J205" s="20"/>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B206" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C206" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D206" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E206" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F206" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G206" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H206" s="19"/>
-      <c r="I206" s="19"/>
-      <c r="J206" s="20"/>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B207" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C207" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D207" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E207" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F207" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G207" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H207" s="19"/>
-      <c r="I207" s="19"/>
-      <c r="J207" s="20"/>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B208" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C208" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D208" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E208" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F208" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G208" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H208" s="19"/>
-      <c r="I208" s="19"/>
-      <c r="J208" s="20"/>
-    </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B209" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C209" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D209" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E209" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F209" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G209" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19"/>
-      <c r="J209" s="20"/>
-    </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B210" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C210" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D210" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E210" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F210" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G210" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
-      <c r="J210" s="20"/>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B211" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D211" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E211" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F211" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G211" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H211" s="19"/>
-      <c r="I211" s="19"/>
-      <c r="J211" s="20"/>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B212" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C212" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D212" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E212" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F212" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G212" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
-      <c r="J212" s="20"/>
-    </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B213" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C213" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D213" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E213" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F213" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G213" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H213" s="19"/>
-      <c r="I213" s="19"/>
-      <c r="J213" s="20"/>
-    </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B214" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C214" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D214" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E214" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F214" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G214" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H214" s="19"/>
-      <c r="I214" s="19"/>
-      <c r="J214" s="20"/>
-    </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B215" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C215" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D215" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E215" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F215" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G215" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H215" s="19"/>
-      <c r="I215" s="19"/>
-      <c r="J215" s="20"/>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B216" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D216" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E216" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F216" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G216" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H216" s="19"/>
-      <c r="I216" s="19"/>
-      <c r="J216" s="20"/>
-    </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B217" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C217" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D217" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E217" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F217" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G217" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H217" s="19"/>
-      <c r="I217" s="19"/>
-      <c r="J217" s="20"/>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B218" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C218" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D218" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E218" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F218" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G218" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H218" s="19"/>
-      <c r="I218" s="19"/>
-      <c r="J218" s="20"/>
-    </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B219" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C219" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D219" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E219" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F219" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G219" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H219" s="19"/>
-      <c r="I219" s="19"/>
-      <c r="J219" s="20"/>
-    </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B220" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C220" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D220" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E220" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F220" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G220" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H220" s="19"/>
-      <c r="I220" s="19"/>
-      <c r="J220" s="20"/>
-    </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B221" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D221" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E221" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F221" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G221" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H221" s="19"/>
-      <c r="I221" s="19"/>
-      <c r="J221" s="20"/>
-    </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B222" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C222" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D222" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E222" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F222" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G222" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="20"/>
-    </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B223" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C223" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D223" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E223" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F223" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G223" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H223" s="19"/>
-      <c r="I223" s="19"/>
-      <c r="J223" s="20"/>
-    </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B224" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C224" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D224" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E224" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F224" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G224" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H224" s="19"/>
-      <c r="I224" s="19"/>
-      <c r="J224" s="20"/>
-    </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B225" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C225" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D225" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E225" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F225" s="24">
-        <v>29600</v>
-      </c>
-      <c r="G225" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H225" s="25"/>
-      <c r="I225" s="25"/>
-      <c r="J225" s="26"/>
-    </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B230" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C230" s="32"/>
-      <c r="H230" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I230" s="1"/>
-      <c r="J230" s="1"/>
-    </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B231" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C231" s="32"/>
-      <c r="H231" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I231" s="1"/>
-      <c r="J231" s="1"/>
+      <c r="B147" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C147" s="32"/>
+      <c r="H147" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="H231:J231"/>
-    <mergeCell ref="H230:J230"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="H147:J147"/>
+    <mergeCell ref="H146:J146"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
